--- a/Supplementary_Table_2.xlsx
+++ b/Supplementary_Table_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B6198-3F39-4747-BE45-9FA5E7D41FAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45A544-74F0-4107-9C2A-3C532245D90B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="530" windowWidth="13980" windowHeight="9530" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Replicate 1" sheetId="10" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Averaged_all_methods" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Averaged_all_methods!$AD$3:$AG$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Averaged_all_methods!$AF$3:$AI$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="58">
   <si>
     <t>IEDB</t>
   </si>
@@ -209,6 +209,22 @@
     <t>AVERAGED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SRCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvMHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -275,22 +291,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7D9AC1-08C0-46B5-9844-C570C3BF2F9C}">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -585,24 +600,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -632,7 +647,7 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1205,7 +1220,7 @@
         <v>0.90224358974358898</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1028790</v>
       </c>
@@ -1249,7 +1264,7 @@
         <v>0.82407407407407396</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1028928</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1028928</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>0.95454545454545403</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1029061</v>
       </c>
@@ -1381,7 +1396,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1029125</v>
       </c>
@@ -1425,7 +1440,7 @@
         <v>0.98979591836734704</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1029125</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>0.96938775510204001</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1029125</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1029824</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>0.57993197278911501</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1029957</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1031253</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>0.93333333333333302</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1031253</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1031253</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>0.628571428571428</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1031959</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>0.43204868154158199</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1031959</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>0.600184889023196</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1031959</v>
       </c>
@@ -1864,14 +1879,8 @@
       <c r="N31" s="2">
         <v>0.60837682801196602</v>
       </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1031959</v>
       </c>
@@ -1914,30 +1923,24 @@
       <c r="N32" s="2">
         <v>0.64861545096164197</v>
       </c>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>1033071</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="8">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>113</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33">
         <v>41</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="4">
@@ -1952,10 +1955,10 @@
       <c r="J33" s="4">
         <v>0.876</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>0.876</v>
       </c>
       <c r="M33" s="2">
@@ -1965,23 +1968,23 @@
         <v>0.85873983739837301</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>1033071</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>10</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34">
         <v>77</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34">
         <v>12</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="4">
@@ -1996,10 +1999,10 @@
       <c r="J34" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>0.85699999999999998</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>0.89900000000000002</v>
       </c>
       <c r="M34" s="2">
@@ -2037,11 +2040,11 @@
         <f t="shared" si="0"/>
         <v>0.7875000000000002</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <f t="shared" si="0"/>
         <v>0.56892514190288856</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <f t="shared" si="0"/>
         <v>0.80663139048411037</v>
       </c>
@@ -2068,7 +2071,7 @@
       <c r="G37" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2902,22 +2905,22 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64">
         <v>1033071</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="8">
-        <v>9</v>
-      </c>
-      <c r="D64" s="8">
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
         <v>113</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64">
         <v>41</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="1">
@@ -2934,22 +2937,22 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="A65">
         <v>1033071</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65">
         <v>77</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65">
         <v>12</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="1">
@@ -3000,7 +3003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B078F8-2981-4E04-9E39-BC444BEF2351}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -3038,7 +3041,7 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4318,22 +4321,22 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>1033071</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>113</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>41</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="4">
@@ -4348,10 +4351,10 @@
       <c r="J31" s="4">
         <v>0.876</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>0.876</v>
       </c>
       <c r="M31" s="4">
@@ -4362,22 +4365,22 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>1033071</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>77</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>12</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="4">
@@ -4392,7 +4395,7 @@
       <c r="J32" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>0.85699999999999998</v>
       </c>
       <c r="L32" s="4">
@@ -4401,7 +4404,7 @@
       <c r="M32" s="4">
         <v>0.802875832023625</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>0.90512820512820502</v>
       </c>
     </row>
@@ -4433,11 +4436,11 @@
         <f t="shared" si="0"/>
         <v>0.7875000000000002</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <f t="shared" si="0"/>
         <v>0.56662960029951503</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <f t="shared" si="0"/>
         <v>0.80382030449834641</v>
       </c>
@@ -4464,7 +4467,7 @@
       <c r="G35" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" t="s">
         <v>52</v>
       </c>
       <c r="R35" s="2"/>
@@ -5278,22 +5281,22 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="A60">
         <v>1031959</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60">
         <v>10</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60">
         <v>7665</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60">
         <v>5575</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
@@ -5310,22 +5313,22 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61">
         <v>1031959</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61">
         <v>11</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61">
         <v>5330</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61">
         <v>3999</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
@@ -5342,31 +5345,31 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62">
         <v>1033071</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="8">
-        <v>9</v>
-      </c>
-      <c r="D62" s="8">
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
         <v>113</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62">
         <v>41</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62">
         <v>0.80300000000000005</v>
       </c>
       <c r="H62" s="1">
         <v>0.873</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>0.80949220472954797</v>
       </c>
       <c r="J62" s="4">
@@ -5374,22 +5377,22 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63">
         <v>1033071</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63">
         <v>10</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63">
         <v>77</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63">
         <v>12</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="1">
@@ -5401,7 +5404,7 @@
       <c r="I63" s="4">
         <v>0.802875832023625</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="6">
         <v>0.90512820512820502</v>
       </c>
     </row>
@@ -5436,7 +5439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A67AB17-4870-4382-8C4A-049CAA58FD72}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -5474,7 +5477,7 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6752,22 +6755,22 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>1033071</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>113</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>41</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="4">
@@ -6782,10 +6785,10 @@
       <c r="J31" s="4">
         <v>0.876</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>0.876</v>
       </c>
       <c r="M31" s="4">
@@ -6796,22 +6799,22 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>1033071</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>77</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>12</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="4">
@@ -6826,10 +6829,10 @@
       <c r="J32" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>0.85699999999999998</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>0.89900000000000002</v>
       </c>
       <c r="M32" s="4">
@@ -6867,11 +6870,11 @@
         <f t="shared" si="0"/>
         <v>0.7875000000000002</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <f t="shared" si="0"/>
         <v>0.56906110958487566</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <f t="shared" si="0"/>
         <v>0.80816336456556981</v>
       </c>
@@ -6898,7 +6901,7 @@
       <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7732,25 +7735,25 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63">
         <v>1033071</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="8">
-        <v>9</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
         <v>113</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63">
         <v>41</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63">
         <v>0.80300000000000005</v>
       </c>
       <c r="H63" s="1">
@@ -7764,22 +7767,22 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64">
         <v>1033071</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64">
         <v>10</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64">
         <v>77</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64">
         <v>12</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="1">
@@ -7807,11 +7810,11 @@
         <f>AVERAGE(H38:H64)</f>
         <v>0.78222222222222215</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <f>AVERAGE(I38:I64)</f>
         <v>0.56976410802408239</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <f>AVERAGE(J38:J64)</f>
         <v>0.80469805784336534</v>
       </c>
@@ -7826,7 +7829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215B62C2-E905-41A5-81D0-66470170E479}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -7864,7 +7867,7 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8474,10 +8477,10 @@
       <c r="L15" s="4">
         <v>0.66200000000000003</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>0.70260457969269297</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>0.83796296296296202</v>
       </c>
       <c r="O15" s="4"/>
@@ -8560,10 +8563,10 @@
       <c r="J17" s="4">
         <v>0.95499999999999996</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>0.95499999999999996</v>
       </c>
       <c r="M17" s="4">
@@ -8612,10 +8615,10 @@
       <c r="L18" s="4">
         <v>0.92</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>0.71687589886080405</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>0.98863636363636298</v>
       </c>
       <c r="O18" s="4"/>
@@ -8652,10 +8655,10 @@
       <c r="J19" s="4">
         <v>0.99</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>0.80100000000000005</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>0.99</v>
       </c>
       <c r="M19" s="4">
@@ -8704,10 +8707,10 @@
       <c r="L20" s="4">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0.75069541044146804</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>0.95918367346938704</v>
       </c>
       <c r="O20" s="4"/>
@@ -8750,10 +8753,10 @@
       <c r="L21" s="4">
         <v>0.73099999999999998</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>0.46961894983268898</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>0.77884615384615297</v>
       </c>
       <c r="O21" s="4"/>
@@ -8796,10 +8799,10 @@
       <c r="L22" s="4">
         <v>0.55600000000000005</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>9.0527797727811596E-2</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>0.55867346938775497</v>
       </c>
       <c r="O22" s="4"/>
@@ -8836,7 +8839,7 @@
       <c r="J23" s="4">
         <v>0.95499999999999996</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>0.79400000000000004</v>
       </c>
       <c r="L23" s="4">
@@ -8845,7 +8848,7 @@
       <c r="M23" s="4">
         <v>0.77875148589252097</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>1</v>
       </c>
       <c r="O23" s="4"/>
@@ -8885,10 +8888,10 @@
       <c r="K24" s="4">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>0.95599999999999996</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>0.83296703296703301</v>
       </c>
       <c r="N24" s="4">
@@ -8928,7 +8931,7 @@
       <c r="J25" s="4">
         <v>1</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>0.97699999999999998</v>
       </c>
       <c r="L25" s="4">
@@ -8980,10 +8983,10 @@
       <c r="L26" s="4">
         <v>0.57099999999999995</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0.59544749808759401</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>0.628571428571428</v>
       </c>
       <c r="O26" s="4"/>
@@ -9020,10 +9023,10 @@
       <c r="J27" s="4">
         <v>0.48599999999999999</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>-0.02</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>0.48799999999999999</v>
       </c>
       <c r="M27" s="4">
@@ -9112,10 +9115,10 @@
       <c r="J29" s="4">
         <v>0.623</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>0.19</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>0.623</v>
       </c>
       <c r="M29" s="4">
@@ -9158,10 +9161,10 @@
       <c r="J30" s="4">
         <v>0.64800000000000002</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>0.224</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>0.64900000000000002</v>
       </c>
       <c r="M30" s="4">
@@ -9173,23 +9176,23 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>1033071</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>113</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>41</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="4">
@@ -9204,10 +9207,10 @@
       <c r="J31" s="4">
         <v>0.876</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>0.876</v>
       </c>
       <c r="M31" s="4">
@@ -9219,23 +9222,23 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>1033071</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>77</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>12</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="4">
@@ -9250,7 +9253,7 @@
       <c r="J32" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>0.85699999999999998</v>
       </c>
       <c r="L32" s="4">
@@ -9293,11 +9296,11 @@
         <f t="shared" si="0"/>
         <v>0.7875000000000002</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <f t="shared" si="0"/>
         <v>0.57315547883051321</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <f t="shared" si="0"/>
         <v>0.80849960803362064</v>
       </c>
@@ -9350,7 +9353,7 @@
       <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10229,55 +10232,54 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63">
         <v>1033071</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="8">
-        <v>9</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
         <v>113</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63">
         <v>41</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63">
         <v>0.80300000000000005</v>
       </c>
       <c r="H63" s="1">
         <v>0.873</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>0.810566909795855</v>
       </c>
       <c r="J63" s="4">
         <v>0.861788617886178</v>
       </c>
-      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64">
         <v>1033071</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64">
         <v>10</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64">
         <v>77</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64">
         <v>12</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="1">
@@ -10292,7 +10294,6 @@
       <c r="J64" s="4">
         <v>0.89871794871794797</v>
       </c>
-      <c r="K64" s="8"/>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
@@ -10326,7 +10327,7 @@
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11864,35 +11865,35 @@
         <v>0.65098245466008497</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>1033071</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>113</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>41</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31">
         <v>0.80900000000000005</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31">
         <v>0.873</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31">
         <v>0.81599999999999995</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31">
         <v>0.876</v>
       </c>
       <c r="K31" s="1">
@@ -11908,41 +11909,41 @@
         <v>0.86314363143631401</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>1033071</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>77</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>12</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32">
         <v>0.83299999999999996</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32">
         <v>0.88100000000000001</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32">
         <v>0.85599999999999998</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32">
         <v>0.89100000000000001</v>
       </c>
       <c r="K32" s="1">
         <v>0.85699999999999998</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32">
         <v>0.89900000000000002</v>
       </c>
       <c r="M32" s="2">
@@ -12011,7 +12012,7 @@
       <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" t="s">
         <v>52</v>
       </c>
     </row>
@@ -12892,26 +12893,26 @@
         <v>0.65098245466008497</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>1033071</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="8">
-        <v>9</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
         <v>113</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63">
         <v>41</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63">
         <v>0.80300000000000005</v>
       </c>
       <c r="H63" s="1">
@@ -12926,23 +12927,23 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>1033071</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64">
         <v>10</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64">
         <v>77</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64">
         <v>12</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="1">
@@ -12984,6 +12985,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12992,110 +12994,106 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L32"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.9140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.58203125" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="5"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.9140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3">
         <v>1028790</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -13129,19 +13127,19 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>315312</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -13175,19 +13173,19 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>1028790</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>35</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -13221,19 +13219,19 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6">
         <v>1029061</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>26</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -13267,19 +13265,19 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>1028790</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>55</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -13313,19 +13311,19 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8">
         <v>1031253</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -13359,19 +13357,19 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9">
         <v>1028790</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>55</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -13405,19 +13403,19 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10">
         <v>1028790</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>55</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -13451,19 +13449,19 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11">
         <v>1029125</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -13497,19 +13495,19 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12">
         <v>1028790</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>35</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -13543,19 +13541,19 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13">
         <v>1028790</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>35</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -13589,19 +13587,19 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14">
         <v>1029125</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -13635,19 +13633,19 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15">
         <v>1031253</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -13685,19 +13683,19 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16">
         <v>1028790</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>55</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -13735,19 +13733,19 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17">
         <v>1029824</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>77</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -13785,19 +13783,19 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18">
         <v>1028790</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="8">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>55</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -13835,19 +13833,19 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19">
         <v>1031959</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>8457</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>5837</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -13885,19 +13883,19 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20">
         <v>315312</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="8">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>10</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -13935,19 +13933,19 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21">
         <v>1028928</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>12</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -13985,19 +13983,19 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22">
         <v>1027131</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="8">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>14</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -14035,19 +14033,19 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23">
         <v>1031959</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>11</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>5330</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>3999</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -14085,19 +14083,19 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24">
         <v>1033071</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="8">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>113</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -14135,19 +14133,19 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25">
         <v>1031253</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="8">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>13</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -14185,19 +14183,19 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26">
         <v>1029957</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>27</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -14235,19 +14233,19 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27">
         <v>1029125</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="8">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8">
-        <v>21</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -14285,19 +14283,19 @@
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28">
         <v>1031959</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>7665</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>5575</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -14335,19 +14333,19 @@
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29">
         <v>1028928</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8">
-        <v>9</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>13</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -14385,19 +14383,19 @@
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30">
         <v>1033071</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>10</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>77</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -14435,19 +14433,19 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>1031959</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31">
         <v>97</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -14485,19 +14483,19 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>315174</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="8">
-        <v>9</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -14584,14 +14582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F414C-01D7-473A-8E4D-C6125F1E771A}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -14603,90 +14601,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3">
         <v>315312</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -14720,19 +14716,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>1028790</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>35</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -14766,19 +14762,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>1028790</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>35</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -14812,19 +14808,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6">
         <v>1028790</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>55</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -14858,19 +14854,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>1029061</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>26</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -14904,19 +14900,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8">
         <v>1028790</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -14950,19 +14946,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9">
         <v>1031253</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>12</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -14996,19 +14992,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10">
         <v>1028790</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>55</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -15042,19 +15038,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11">
         <v>1029125</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -15088,19 +15084,19 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12">
         <v>1029957</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>27</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -15134,19 +15130,19 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13">
         <v>1029125</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -15180,19 +15176,19 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14">
         <v>1029824</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>77</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -15226,19 +15222,19 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15">
         <v>1031959</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>8457</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>5837</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -15272,19 +15268,19 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16">
         <v>315312</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -15318,19 +15314,19 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17">
         <v>1027131</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>14</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -15364,19 +15360,19 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18">
         <v>1028928</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="8">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -15410,19 +15406,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19">
         <v>1031253</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>13</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -15456,19 +15452,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20">
         <v>1031959</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>11</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>5330</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>3999</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -15502,19 +15498,19 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21">
         <v>1033071</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>77</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -15548,19 +15544,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22">
         <v>1029125</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8">
-        <v>21</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -15594,19 +15590,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23">
         <v>1031253</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>14</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -15640,19 +15636,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24">
         <v>1028790</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="8">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>55</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -15686,19 +15682,19 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25">
         <v>1031959</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>7665</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>5575</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -15732,19 +15728,19 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26">
         <v>1033071</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="8">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>113</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -15778,19 +15774,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27">
         <v>1028790</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>55</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <v>45</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -15824,19 +15820,19 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28">
         <v>1028790</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>35</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -15870,19 +15866,19 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29">
         <v>1028928</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8">
-        <v>9</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>13</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -15916,19 +15912,19 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30">
         <v>1028790</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>10</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>35</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -15962,19 +15958,19 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>1031959</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31">
         <v>97</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -16008,19 +16004,19 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>315174</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="8">
-        <v>9</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -16053,7 +16049,7 @@
         <v>-0.10728571428571465</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F33" s="2" t="s">
         <v>53</v>
       </c>
@@ -16090,9 +16086,7 @@
         <v>1.9015099344556526E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -16102,9 +16096,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="C35" s="8"/>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -16114,9 +16106,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -16126,9 +16116,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -16138,9 +16126,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="C38" s="8"/>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -16150,9 +16136,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="C39" s="8"/>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -16162,9 +16146,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="C40" s="8"/>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -16174,9 +16156,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="C41" s="8"/>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -16186,9 +16166,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="C42" s="8"/>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -16198,9 +16176,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -16210,9 +16186,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="C44" s="8"/>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -16222,9 +16196,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="C45" s="8"/>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -16234,9 +16206,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="C46" s="8"/>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -16246,9 +16216,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="C47" s="8"/>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -16258,9 +16226,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="C48" s="8"/>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -16270,9 +16236,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="C49" s="8"/>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -16282,9 +16246,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="C50" s="8"/>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -16294,9 +16256,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="C51" s="8"/>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -16306,9 +16266,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -16318,9 +16276,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="C53" s="8"/>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -16330,9 +16286,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="C54" s="8"/>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -16342,9 +16296,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="C55" s="8"/>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -16354,9 +16306,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="C56" s="8"/>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -16366,9 +16316,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="C57" s="8"/>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -16378,9 +16326,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="C58" s="8"/>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -16390,9 +16336,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="C59" s="8"/>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -16402,9 +16346,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="C60" s="8"/>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -16414,9 +16356,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="C61" s="8"/>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -16440,185 +16380,188 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE1B5B2-52EA-4F5C-AFF6-E6302DA9CA1C}">
-  <dimension ref="A1:AL61"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView tabSelected="1" topLeftCell="T13" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="31" max="31" width="13.9140625" customWidth="1"/>
-    <col min="35" max="35" width="12.25" customWidth="1"/>
+    <col min="33" max="33" width="13.9140625" customWidth="1"/>
+    <col min="37" max="37" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7" t="s">
+      <c r="U1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="13"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="AD1" s="9"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AD2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>315312</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="4">
@@ -16681,37 +16624,36 @@
       <c r="Z3" s="2">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="10">
+        <v>0.78411567920400005</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0.95833333333299997</v>
+      </c>
+      <c r="AC3" s="2">
         <v>0.8528028654224411</v>
       </c>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>315312</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="4">
@@ -16774,37 +16716,36 @@
       <c r="Z4" s="2">
         <v>0.67900000000000005</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="10">
+        <v>-0.122988009254</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0.39285714285700002</v>
+      </c>
+      <c r="AC4" s="2">
         <v>0.25417521912414381</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AD4" s="2">
         <v>0.7214285714285712</v>
       </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1027131</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4">
@@ -16867,37 +16808,36 @@
       <c r="Z5" s="2">
         <v>1</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="10">
+        <v>0.71330959105199998</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
         <v>0.71252530319442497</v>
       </c>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1028790</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>55</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>47</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="4">
@@ -16960,37 +16900,36 @@
       <c r="Z6" s="2">
         <v>0.66</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="10">
+        <v>0.606889626194</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0.61170212765999998</v>
+      </c>
+      <c r="AC6" s="2">
         <v>0.71341447030472283</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AD6" s="2">
         <v>0.63404255319148883</v>
       </c>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1028790</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>35</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4">
@@ -17053,37 +16992,36 @@
       <c r="Z7" s="2">
         <v>0.64500000000000002</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="2">
         <v>0.62077176425080338</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>0.70806451612903187</v>
       </c>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1028790</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>45</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="4">
@@ -17146,37 +17084,36 @@
       <c r="Z8" s="2">
         <v>0.72099999999999997</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="10">
+        <v>0.47924596381899998</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0.64888888888899998</v>
+      </c>
+      <c r="AC8" s="2">
         <v>0.64502047463532242</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AD8" s="2">
         <v>0.74711111111111062</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1028790</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>55</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="4">
@@ -17239,37 +17176,36 @@
       <c r="Z9" s="2">
         <v>0.76600000000000001</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="10">
+        <v>0.48741363819</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0.70542635658899999</v>
+      </c>
+      <c r="AC9" s="2">
         <v>0.54855514303888731</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AD9" s="2">
         <v>0.69496124031007744</v>
       </c>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1028790</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>35</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>28</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="4">
@@ -17332,37 +17268,36 @@
       <c r="Z10" s="2">
         <v>0.70399999999999996</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="2">
         <v>0.30575051455979502</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AD10" s="2">
         <v>0.74285714285714222</v>
       </c>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1028790</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>55</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>36</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="4">
@@ -17425,37 +17360,36 @@
       <c r="Z11" s="2">
         <v>0.75</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="10">
+        <v>0.63980949860799996</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0.78801169590599995</v>
+      </c>
+      <c r="AC11" s="2">
         <v>0.71753054868705601</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AD11" s="2">
         <v>0.83391812865497017</v>
       </c>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1028790</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>35</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="4">
@@ -17518,37 +17452,36 @@
       <c r="Z12" s="2">
         <v>0.65600000000000003</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC12" s="2">
         <v>0.61255255976904288</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AD12" s="2">
         <v>0.77971014492753565</v>
       </c>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1028790</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>55</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>16</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="4">
@@ -17611,37 +17544,36 @@
       <c r="Z13" s="2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="10">
+        <v>0.402353705615</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0.76121794871799997</v>
+      </c>
+      <c r="AC13" s="2">
         <v>0.69341578424169681</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AD13" s="2">
         <v>0.90352564102564092</v>
       </c>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1028790</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>35</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="4">
@@ -17704,37 +17636,36 @@
       <c r="Z14" s="2">
         <v>0.66200000000000003</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC14" s="2">
         <v>0.696771848672184</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AD14" s="2">
         <v>0.83148148148148093</v>
       </c>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>1028928</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>11</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="4">
@@ -17797,37 +17728,36 @@
       <c r="Z15" s="2">
         <v>0.95499999999999996</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="10">
+        <v>0.54205783521600004</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0.93181818181800002</v>
+      </c>
+      <c r="AC15" s="2">
         <v>0.53561470936029765</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AD15" s="2">
         <v>0.92727272727272703</v>
       </c>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>1028928</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="4">
@@ -17890,37 +17820,36 @@
       <c r="Z16" s="2">
         <v>1</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="10">
+        <v>0.64775027563099996</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="2">
         <v>0.64775027563129495</v>
       </c>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>1029061</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>26</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="4">
@@ -17983,37 +17912,36 @@
       <c r="Z17" s="2">
         <v>0.90900000000000003</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="10">
+        <v>0.58971831016200005</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0.92045454545500005</v>
+      </c>
+      <c r="AC17" s="2">
         <v>0.73208933681898425</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AD17" s="2">
         <v>0.98392727272727254</v>
       </c>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>1029125</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
         <v>14</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="4">
@@ -18076,37 +18004,36 @@
       <c r="Z18" s="2">
         <v>0.91300000000000003</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18" s="10">
+        <v>0.76762680062699995</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0.96938775510200004</v>
+      </c>
+      <c r="AC18" s="2">
         <v>0.7607046825806878</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AD18" s="2">
         <v>0.96530612244897873</v>
       </c>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1029824</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>77</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>56</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="4">
@@ -18169,37 +18096,36 @@
       <c r="Z19" s="2">
         <v>0.55400000000000005</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="10">
+        <v>0.13644859192</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>0.58843537415000002</v>
+      </c>
+      <c r="AC19" s="2">
         <v>0.10627176255003926</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AD19" s="2">
         <v>0.5688775510204076</v>
       </c>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1029957</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="7">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>27</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>11</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="4">
@@ -18262,38 +18188,36 @@
       <c r="Z20" s="2">
         <v>0.96599999999999997</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="10">
+        <v>0.57940863015099997</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0.92513368984</v>
+      </c>
+      <c r="AC20" s="2">
         <v>0.77437032422786523</v>
       </c>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>1031253</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>14</v>
       </c>
-      <c r="E21" s="7">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="4">
@@ -18356,38 +18280,36 @@
       <c r="Z21" s="2">
         <v>0.95599999999999996</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21" s="10">
+        <v>0.850549450549</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0.95555555555600002</v>
+      </c>
+      <c r="AC21" s="2">
         <v>0.83384615384615335</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AD21" s="2">
         <v>0.94222222222222185</v>
       </c>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1031253</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>13</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="4">
@@ -18450,38 +18372,36 @@
       <c r="Z22" s="2">
         <v>1</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22" s="10">
+        <v>0.88308199084899996</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2">
         <v>0.9683640522700836</v>
       </c>
-      <c r="AB22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-    </row>
-    <row r="23" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1031253</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="8">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>12</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="4">
@@ -18544,37 +18464,36 @@
       <c r="Z23" s="2">
         <v>0.6</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23" s="10">
+        <v>0.48686589549499998</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AC23" s="2">
         <v>0.59194486574590244</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AD23" s="2">
         <v>0.628571428571428</v>
       </c>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-    </row>
-    <row r="24" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1031959</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>97</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>30</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="4">
@@ -18637,37 +18556,36 @@
       <c r="Z24" s="2">
         <v>0.48699999999999999</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC24" s="2">
         <v>-0.1172589598221252</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AD24" s="2">
         <v>0.426064908722109</v>
       </c>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-    </row>
-    <row r="25" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>1031959</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="8">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>8457</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>5837</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="4">
@@ -18730,37 +18648,36 @@
       <c r="Z25" s="2">
         <v>0.59499999999999997</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC25" s="2">
         <v>0.16001522732297041</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AD25" s="2">
         <v>0.60004620694196475</v>
       </c>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>1031959</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>10</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>7665</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>5575</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="4">
@@ -18823,40 +18740,36 @@
       <c r="Z26" s="2">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC26" s="2">
         <v>0.16600554464641643</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AD26" s="2">
         <v>0.60796704265099111</v>
       </c>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1031959</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>11</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>5330</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <v>3999</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="4">
@@ -18919,37 +18832,36 @@
       <c r="Z27" s="2">
         <v>0.64900000000000002</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC27" s="2">
         <v>0.2233547093864944</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AD27" s="2">
         <v>0.64881018876591967</v>
       </c>
-      <c r="AC27" s="9"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>1033071</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="8">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>113</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>41</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="4">
@@ -19012,37 +18924,36 @@
       <c r="Z28" s="2">
         <v>0.85199999999999998</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="10">
+        <v>0.75931702577299998</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>0.85145663956600004</v>
+      </c>
+      <c r="AC28" s="2">
         <v>0.80611444029067625</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AD28" s="2">
         <v>0.86063685636856291</v>
       </c>
-      <c r="AC28" s="9"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>1033071</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>10</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29">
         <v>77</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>12</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="4">
@@ -19105,24 +19016,22 @@
       <c r="Z29" s="2">
         <v>0.878</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC29" s="2">
         <v>0.79894140451539908</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AD29" s="2">
         <v>0.89846153846153809</v>
       </c>
-      <c r="AC29" s="9"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G30" s="4">
-        <f t="shared" ref="G30:AB30" si="0">AVERAGE(G3:G29)</f>
+        <f t="shared" ref="G30:AD30" si="0">AVERAGE(G3:G29)</f>
         <v>0.51181481481481483</v>
       </c>
       <c r="H30" s="4">
@@ -19201,742 +19110,36 @@
         <f t="shared" si="0"/>
         <v>0.77344444444444438</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC30" s="2">
         <f t="shared" si="0"/>
         <v>0.5689412972322837</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AD30" s="2">
         <f t="shared" si="0"/>
         <v>0.80204683693670997</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AC32" s="8"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="AD3:AG29">
-    <sortCondition ref="AD3:AD29"/>
-    <sortCondition ref="AE3:AE29"/>
+  <sortState ref="AF3:AI29">
     <sortCondition ref="AF3:AF29"/>
+    <sortCondition ref="AG3:AG29"/>
+    <sortCondition ref="AH3:AH29"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
